--- a/biology/Origine et évolution du vivant/Itaboraien/Itaboraien.xlsx
+++ b/biology/Origine et évolution du vivant/Itaboraien/Itaboraien.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'Itaboraien (du portugais : Itaboraiense, passé par l'anglais : Itaboraian) ou l'âge itaboraien est une période de l'époque géologique de l'Éocène inférieur (53,0 à 50,0 Ma) de l'Éocène, caractérisant l'âge des mammifères terrestres d'Amérique du Sud (SALMA). Il succède au Riochiquien (en) et précède l'âge casamayorien (en)[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Itaboraien (du portugais : Itaboraiense, passé par l'anglais : Itaboraian) ou l'âge itaboraien est une période de l'époque géologique de l'Éocène inférieur (53,0 à 50,0 Ma) de l'Éocène, caractérisant l'âge des mammifères terrestres d'Amérique du Sud (SALMA). Il succède au Riochiquien (en) et précède l'âge casamayorien (en).
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet âge tire son nom d'une formation géologique sur la commune d'Itaboraí, dans le bassin dit d'Itaboraí, une municipalité du Grand Rio dans l'État de Rio de Janeiro au Brésil, non loin de Niterói.
 </t>
@@ -542,7 +556,9 @@
           <t>Gisements</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 </t>
@@ -574,6 +590,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -600,6 +618,8 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
